--- a/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,613 +453,1235 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45271</v>
+        <v>45277</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45285</v>
+        <v>45291</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>180</v>
+      <c r="C5" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45299</v>
+        <v>45305</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
-        <v>30</v>
+      <c r="C6" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45306</v>
+        <v>45312</v>
       </c>
       <c r="B7" t="n">
         <v>13</v>
       </c>
-      <c r="C7" t="n">
-        <v>30</v>
+      <c r="C7" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B8" t="n">
         <v>11</v>
       </c>
-      <c r="C8" t="n">
-        <v>150</v>
+      <c r="C8" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B9" t="n">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45327</v>
+        <v>45333</v>
       </c>
       <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
-        <v>90</v>
+      <c r="C10" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B11" t="n">
         <v>26</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
       </c>
-      <c r="C12" t="n">
-        <v>90</v>
+      <c r="C12" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B13" t="n">
         <v>17</v>
       </c>
-      <c r="C13" t="n">
-        <v>120</v>
+      <c r="C13" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B14" t="n">
         <v>21</v>
       </c>
-      <c r="C14" t="n">
-        <v>40</v>
+      <c r="C14" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B16" t="n">
         <v>17</v>
       </c>
-      <c r="C16" t="n">
-        <v>20</v>
+      <c r="C16" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="n">
         <v>17</v>
       </c>
-      <c r="C17" t="n">
-        <v>50</v>
+      <c r="C17" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B18" t="n">
         <v>10</v>
       </c>
-      <c r="C18" t="n">
-        <v>40</v>
+      <c r="C18" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="n">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B20" t="n">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B21" t="n">
         <v>23</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45411</v>
+        <v>45417</v>
       </c>
       <c r="B22" t="n">
         <v>9</v>
       </c>
-      <c r="C22" t="n">
-        <v>20</v>
+      <c r="C22" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45418</v>
+        <v>45424</v>
       </c>
       <c r="B23" t="n">
         <v>14</v>
       </c>
-      <c r="C23" t="n">
-        <v>60</v>
+      <c r="C23" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B24" t="n">
         <v>13</v>
       </c>
-      <c r="C24" t="n">
-        <v>20</v>
+      <c r="C24" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B25" t="n">
         <v>12</v>
       </c>
-      <c r="C25" t="n">
-        <v>40</v>
+      <c r="C25" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B26" t="n">
         <v>16</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B27" t="n">
         <v>11</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B28" t="n">
         <v>32</v>
       </c>
-      <c r="C28" t="n">
-        <v>40</v>
+      <c r="C28" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B29" t="n">
         <v>16</v>
       </c>
-      <c r="C29" t="n">
-        <v>60</v>
+      <c r="C29" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
-      <c r="C30" t="n">
-        <v>20</v>
+      <c r="C30" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B31" t="n">
         <v>17</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B32" t="n">
         <v>16</v>
       </c>
-      <c r="C32" t="n">
-        <v>60</v>
+      <c r="C32" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B33" t="n">
         <v>18</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B35" t="n">
         <v>7</v>
       </c>
-      <c r="C35" t="n">
-        <v>40</v>
+      <c r="C35" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B36" t="n">
         <v>8</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B37" t="n">
         <v>17</v>
       </c>
-      <c r="C37" t="n">
-        <v>40</v>
+      <c r="C37" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B38" t="n">
         <v>99</v>
       </c>
-      <c r="C38" t="n">
-        <v>40</v>
+      <c r="C38" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B39" t="n">
         <v>20</v>
       </c>
-      <c r="C39" t="n">
-        <v>40</v>
+      <c r="C39" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B40" t="n">
         <v>20</v>
       </c>
-      <c r="C40" t="n">
-        <v>20</v>
+      <c r="C40" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B41" t="n">
         <v>15</v>
       </c>
-      <c r="C41" t="n">
-        <v>100</v>
+      <c r="C41" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
       </c>
-      <c r="C42" t="n">
-        <v>60</v>
+      <c r="C42" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B43" t="n">
         <v>8</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B44" t="n">
         <v>18</v>
       </c>
-      <c r="C44" t="n">
-        <v>20</v>
+      <c r="C44" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B45" t="n">
         <v>10</v>
       </c>
-      <c r="C45" t="n">
-        <v>40</v>
+      <c r="C45" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B46" t="n">
         <v>51</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B47" t="n">
         <v>21</v>
       </c>
-      <c r="C47" t="n">
-        <v>100</v>
+      <c r="C47" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B48" t="n">
         <v>9</v>
       </c>
-      <c r="C48" t="n">
-        <v>240</v>
+      <c r="C48" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B49" t="n">
         <v>15</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B51" t="n">
         <v>28</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B52" t="n">
         <v>9</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B53" t="n">
         <v>27</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B54" t="n">
         <v>19</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B55" t="n">
         <v>8</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B56" t="n">
         <v>12</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
+      <c r="C56" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>180</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>30</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B5" t="n">
+        <v>150</v>
+      </c>
+      <c r="C5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B8" t="n">
+        <v>120</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B16" t="n">
+        <v>40</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B20" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B21" t="n">
+        <v>40</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-33.33333333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B23" t="n">
+        <v>40</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-66.66666666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B29" t="n">
+        <v>40</v>
+      </c>
+      <c r="C29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B30" t="n">
+        <v>100</v>
+      </c>
+      <c r="C30" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B31" t="n">
+        <v>240</v>
+      </c>
+      <c r="C31" t="n">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63.33333333333334</v>
+      </c>
+      <c r="C2" t="n">
+        <v>240</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60.22988505747127</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,782 +453,612 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45270</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="C2" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45277</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45291</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45298</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45305</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45312</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45319</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45326</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45333</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="C10" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="C12" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="C13" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="C16" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>23</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>14</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>13</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>16</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>32</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>16</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>17</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>16</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="C32" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>18</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>7</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="C35" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>8</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>17</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>99</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="C38" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>20</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="C39" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>20</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>15</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="C41" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+      <c r="C42" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>8</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>18</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="C44" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>10</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
+      <c r="C45" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>51</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>21</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="C47" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B48" t="n">
         <v>9</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+      <c r="C48" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B49" t="n">
         <v>15</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>28</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>9</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B53" t="n">
         <v>27</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B54" t="n">
         <v>19</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B55" t="n">
         <v>8</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B56" t="n">
         <v>12</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,7 +1073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,10 +1100,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1281,227 +1111,227 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="C3" t="n">
-        <v>-83.33333333333334</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-83.33333333333334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>-40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C9" t="n">
-        <v>-66.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>-50</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>150</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>-20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45411</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>-50</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C15" t="n">
-        <v>-66.66666666666667</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
-        <v>-66.66666666666667</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45502</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C21" t="n">
-        <v>-33.33333333333334</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45516</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>40</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-33.33333333333334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45523</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>40</v>
@@ -1512,7 +1342,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45530</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>40</v>
@@ -1523,78 +1353,89 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45537</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C25" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45544</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>400</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45551</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>-40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45565</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>-66.66666666666667</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45572</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>-66.66666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45586</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>40</v>
+      </c>
+      <c r="C30" t="n">
         <v>100</v>
-      </c>
-      <c r="C30" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45593</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B31" t="n">
+        <v>100</v>
+      </c>
+      <c r="C31" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B32" t="n">
         <v>240</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>140</v>
       </c>
     </row>
@@ -1641,10 +1482,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1900</v>
+        <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>63.33333333333334</v>
+        <v>63.87096774193548</v>
       </c>
       <c r="C2" t="n">
         <v>240</v>
@@ -1681,7 +1522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60.22988505747127</v>
+        <v>59.35483870967742</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,6 +891,14 @@
       </c>
       <c r="B56" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -17025,7 +17033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17740,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -17773,7 +17781,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -17949,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -17960,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -18829,7 +18837,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164">
@@ -18840,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -18851,7 +18859,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166">
@@ -18862,7 +18870,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -18972,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177">
@@ -18983,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
@@ -18994,7 +19002,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179">
@@ -19005,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
@@ -19137,6 +19145,17 @@
         <v>12</v>
       </c>
       <c r="C191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B192" t="n">
+        <v>30</v>
+      </c>
+      <c r="C192" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,6 +899,14 @@
       </c>
       <c r="B57" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -17033,7 +17041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18837,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
@@ -18848,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
@@ -18859,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
@@ -18870,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
@@ -18980,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177">
@@ -18991,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
@@ -19002,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179">
@@ -19013,7 +19021,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180">
@@ -19156,6 +19164,17 @@
         <v>30</v>
       </c>
       <c r="C192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B193" t="n">
+        <v>46</v>
+      </c>
+      <c r="C193" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,14 @@
       </c>
       <c r="B58" t="n">
         <v>46</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -17041,7 +17049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17789,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -17833,7 +17841,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -17965,7 +17973,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -17976,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -18152,7 +18160,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
@@ -18163,7 +18171,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -18790,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
@@ -18801,7 +18809,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160">
@@ -19175,6 +19183,17 @@
         <v>46</v>
       </c>
       <c r="C193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B194" t="n">
+        <v>10</v>
+      </c>
+      <c r="C194" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CNR6L1DH_sales_po_comparison.xlsx
@@ -914,7 +914,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -19191,7 +19191,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B194" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
